--- a/Tatulya/create cards/Data_to_create_07.04.2024.xlsx
+++ b/Tatulya/create cards/Data_to_create_07.04.2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
@@ -2109,8 +2109,8 @@
   </sheetPr>
   <dimension ref="A1:BS1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AS1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BM2" activeCellId="0" sqref="BM2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AI1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AM18" activeCellId="0" sqref="AM18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9066,7 +9066,7 @@
   </sheetPr>
   <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Tatulya/create cards/Data_to_create_07.04.2024.xlsx
+++ b/Tatulya/create cards/Data_to_create_07.04.2024.xlsx
@@ -1752,7 +1752,7 @@
     <t xml:space="preserve">126_horiz</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка Дейзи и Минни Маус коктейль мороженое</t>
+    <t xml:space="preserve">Термонаклейка Дейзи и Минни Маус коктейль</t>
   </si>
   <si>
     <t xml:space="preserve">127_horiz</t>
@@ -2109,8 +2109,8 @@
   </sheetPr>
   <dimension ref="A1:BS1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AI1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AM18" activeCellId="0" sqref="AM18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8285,7 +8285,7 @@
       </c>
       <c r="D40" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A40, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Дейзи и Минни Маус коктейль мороженое.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Дейзи и Минни Маус коктейль.pdf</v>
       </c>
       <c r="E40" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C40,".tif")</f>
@@ -8308,11 +8308,11 @@
       </c>
       <c r="M40" s="0" t="str">
         <f aca="false">A40</f>
-        <v>Термонаклейка Дейзи и Минни Маус коктейль мороженое</v>
+        <v>Термонаклейка Дейзи и Минни Маус коктейль</v>
       </c>
       <c r="O40" s="0" t="str">
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A40, "Термонаклейка", "")</f>
-        <v>Термонаклейка для одежды: Дейзи и Минни Маус коктейль мороженое</v>
+        <v>Термонаклейка для одежды: Дейзи и Минни Маус коктейль</v>
       </c>
       <c r="Q40" s="0" t="n">
         <v>349</v>
@@ -8322,7 +8322,7 @@
       </c>
       <c r="S40" s="7" t="str">
         <f aca="false">A40&amp;Описание!B147</f>
-        <v>Термонаклейка Дейзи и Минни Маус коктейль мороженое</v>
+        <v>Термонаклейка Дейзи и Минни Маус коктейль</v>
       </c>
       <c r="T40" s="0" t="n">
         <v>1</v>
@@ -8345,7 +8345,7 @@
       </c>
       <c r="AA40" s="0" t="str">
         <f aca="false">A40</f>
-        <v>Термонаклейка Дейзи и Минни Маус коктейль мороженое</v>
+        <v>Термонаклейка Дейзи и Минни Маус коктейль</v>
       </c>
       <c r="AB40" s="0" t="n">
         <f aca="false">Q40</f>
@@ -8394,14 +8394,14 @@
       <c r="AS40" s="10"/>
       <c r="AT40" s="0" t="str">
         <f aca="false">SUBSTITUTE(A40,"Термонаклейка ","")</f>
-        <v>Дейзи и Минни Маус коктейль мороженое</v>
+        <v>Дейзи и Минни Маус коктейль</v>
       </c>
       <c r="AU40" s="9" t="s">
         <v>81</v>
       </c>
       <c r="AV40" s="0" t="str">
         <f aca="false">S40</f>
-        <v>Термонаклейка Дейзи и Минни Маус коктейль мороженое</v>
+        <v>Термонаклейка Дейзи и Минни Маус коктейль</v>
       </c>
       <c r="AX40" s="11" t="str">
         <f aca="false">X40</f>
@@ -8421,7 +8421,7 @@
       </c>
       <c r="BM40" s="0" t="str">
         <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A40,"Термонаклейка",""))</f>
-        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Дейзи и Минни Маус коктейль мороженое</v>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Дейзи и Минни Маус коктейль</v>
       </c>
       <c r="BR40" s="16" t="s">
         <v>82</v>
